--- a/Code/Results/Cases/Case_1_224/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_224/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8276714409354327</v>
+        <v>0.6077046446798136</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.06033186818126524</v>
+        <v>0.03079724402117989</v>
       </c>
       <c r="E2">
-        <v>0.0952650073180159</v>
+        <v>0.224429308261251</v>
       </c>
       <c r="F2">
-        <v>0.4917680942575373</v>
+        <v>0.7248687392599535</v>
       </c>
       <c r="G2">
-        <v>0.0007994272552063223</v>
+        <v>0.00242972007515663</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4163774450237021</v>
+        <v>0.9809152544316149</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.533106483516093</v>
+        <v>0.4690150215434414</v>
       </c>
       <c r="L2">
-        <v>0.3307203035889899</v>
+        <v>0.1719004026205795</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.4233411219289</v>
+        <v>2.497026713160096</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7246224620423902</v>
+        <v>0.5796414754831005</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05454626035699306</v>
+        <v>0.02879354639640752</v>
       </c>
       <c r="E3">
-        <v>0.09827525206548149</v>
+        <v>0.2265548982605265</v>
       </c>
       <c r="F3">
-        <v>0.4640632789718779</v>
+        <v>0.7238108711795519</v>
       </c>
       <c r="G3">
-        <v>0.0008031767538315859</v>
+        <v>0.002432198762770559</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4345470984743187</v>
+        <v>0.9927891755959593</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.350914859998142</v>
+        <v>0.4104088994488677</v>
       </c>
       <c r="L3">
-        <v>0.2878423490004849</v>
+        <v>0.1601610097961412</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.37909697258479</v>
+        <v>2.507101683807377</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6616556556950286</v>
+        <v>0.5626095196223559</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05098329309966232</v>
+        <v>0.02755315446407991</v>
       </c>
       <c r="E4">
-        <v>0.1002584634760986</v>
+        <v>0.2279470801253858</v>
       </c>
       <c r="F4">
-        <v>0.4480803117041603</v>
+        <v>0.723645887686537</v>
       </c>
       <c r="G4">
-        <v>0.0008055563073041707</v>
+        <v>0.002433802736840874</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4466197087333263</v>
+        <v>1.00057301700701</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.238955602422976</v>
+        <v>0.3742607026897247</v>
       </c>
       <c r="L4">
-        <v>0.2616928165981989</v>
+        <v>0.1530203475481215</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.355260874965268</v>
+        <v>2.514886927362753</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6360633710032175</v>
+        <v>0.5557194436901511</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0495284049324809</v>
+        <v>0.02704516848562832</v>
       </c>
       <c r="E5">
-        <v>0.1011000926593644</v>
+        <v>0.2285363285517263</v>
       </c>
       <c r="F5">
-        <v>0.4418117339605772</v>
+        <v>0.723700466314952</v>
       </c>
       <c r="G5">
-        <v>0.0008065457766766605</v>
+        <v>0.002434477062480316</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4517631962320117</v>
+        <v>1.003869013700236</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.193294608313636</v>
+        <v>0.3594896551382476</v>
       </c>
       <c r="L5">
-        <v>0.2510756699839334</v>
+        <v>0.1501275280282499</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.346343662714773</v>
+        <v>2.518461400828329</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6318175778920363</v>
+        <v>0.5545784234709572</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.04928663558384727</v>
+        <v>0.026960666623566</v>
       </c>
       <c r="E6">
-        <v>0.1012418516843274</v>
+        <v>0.2286354978052074</v>
       </c>
       <c r="F6">
-        <v>0.440785222355494</v>
+        <v>0.7237168851329017</v>
       </c>
       <c r="G6">
-        <v>0.0008067112815069444</v>
+        <v>0.002434590285278813</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4526305970199829</v>
+        <v>1.004423801757374</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.185710045497927</v>
+        <v>0.3570345204384751</v>
       </c>
       <c r="L6">
-        <v>0.2493148957694444</v>
+        <v>0.1496482112839317</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.344909888121975</v>
+        <v>2.519079208723497</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6613102494961538</v>
+        <v>0.5625163920921636</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05096368428304032</v>
+        <v>0.02754631373974803</v>
       </c>
       <c r="E7">
-        <v>0.1002696791336719</v>
+        <v>0.2279549381287982</v>
       </c>
       <c r="F7">
-        <v>0.4479947988960333</v>
+        <v>0.7236461305918525</v>
       </c>
       <c r="G7">
-        <v>0.0008055695710042499</v>
+        <v>0.002433811747382583</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4466881779903566</v>
+        <v>1.000616965830133</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.23833996785558</v>
+        <v>0.3740616575116746</v>
       </c>
       <c r="L7">
-        <v>0.2615494794378179</v>
+        <v>0.1529812647481634</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.355137443536023</v>
+        <v>2.514933506859919</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7920706961111534</v>
+        <v>0.5979874980024249</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05833900492227428</v>
+        <v>0.03010848370041685</v>
       </c>
       <c r="E8">
-        <v>0.09627465216220621</v>
+        <v>0.2251441608267335</v>
       </c>
       <c r="F8">
-        <v>0.481993576254645</v>
+        <v>0.7244033949001434</v>
       </c>
       <c r="G8">
-        <v>0.0008007042341271494</v>
+        <v>0.002430557733685446</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4224480739612595</v>
+        <v>0.9849070170767149</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.470297744745949</v>
+        <v>0.4488421042360642</v>
       </c>
       <c r="L8">
-        <v>0.3158955768163452</v>
+        <v>0.1678387431039283</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.40736919360063</v>
+        <v>2.500168529963247</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.051391826933354</v>
+        <v>0.6691041461781992</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0727327060851195</v>
+        <v>0.03505168422596938</v>
       </c>
       <c r="E9">
-        <v>0.08953266694716255</v>
+        <v>0.2203216144610414</v>
       </c>
       <c r="F9">
-        <v>0.5574829685959202</v>
+        <v>0.7297358508858522</v>
       </c>
       <c r="G9">
-        <v>0.0007917611524480107</v>
+        <v>0.002424824875068473</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.382496290884049</v>
+        <v>0.9580130718113153</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.925095008646906</v>
+        <v>0.5941572759948599</v>
       </c>
       <c r="L9">
-        <v>0.4241542942058771</v>
+        <v>0.197505238065574</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.538180797627604</v>
+        <v>2.483914633863122</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.244401822589623</v>
+        <v>0.7222813739776086</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.08328832966664379</v>
+        <v>0.03863298298050211</v>
       </c>
       <c r="E10">
-        <v>0.0852764878421457</v>
+        <v>0.2171967730951474</v>
       </c>
       <c r="F10">
-        <v>0.6192984875140226</v>
+        <v>0.7360047355786676</v>
       </c>
       <c r="G10">
-        <v>0.0007855317134363077</v>
+        <v>0.002421004242896591</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3582210084178854</v>
+        <v>0.9406391104756686</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.260213792718616</v>
+        <v>0.7000807689378519</v>
       </c>
       <c r="L10">
-        <v>0.5051341377059941</v>
+        <v>0.2196225295919447</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.654490715774841</v>
+        <v>2.479734630999531</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.332918799005313</v>
+        <v>0.7466702662102875</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.08809165181626355</v>
+        <v>0.04025106503587494</v>
       </c>
       <c r="E11">
-        <v>0.08349886434853815</v>
+        <v>0.2158656061615449</v>
       </c>
       <c r="F11">
-        <v>0.6490317109167165</v>
+        <v>0.7393684441233148</v>
       </c>
       <c r="G11">
-        <v>0.0007827663463430181</v>
+        <v>0.002419350277192517</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3483871279251645</v>
+        <v>0.9332530027675858</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.413128285154869</v>
+        <v>0.7480802438620344</v>
       </c>
       <c r="L11">
-        <v>0.542385941999342</v>
+        <v>0.2297536602258674</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.712479082313052</v>
+        <v>2.479522802189535</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.366555773952797</v>
+        <v>0.7559337375154485</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.08991123656852551</v>
+        <v>0.04086217595855857</v>
       </c>
       <c r="E12">
-        <v>0.08284916445076362</v>
+        <v>0.2153744871477894</v>
       </c>
       <c r="F12">
-        <v>0.6605435595541707</v>
+        <v>0.7407158809475476</v>
       </c>
       <c r="G12">
-        <v>0.000781728537388854</v>
+        <v>0.002418735988704661</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3448467664731574</v>
+        <v>0.9305304840402293</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.471121910346511</v>
+        <v>0.766229006172523</v>
       </c>
       <c r="L12">
-        <v>0.5565604143862828</v>
+        <v>0.2336000165675785</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.735229739801582</v>
+        <v>2.479685853896541</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.359305979532479</v>
+        <v>0.7539374505172134</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.08951931901366095</v>
+        <v>0.04073063488630879</v>
       </c>
       <c r="E13">
-        <v>0.08298803538786714</v>
+        <v>0.2154796821996587</v>
       </c>
       <c r="F13">
-        <v>0.6580527029929044</v>
+        <v>0.7404224088321172</v>
       </c>
       <c r="G13">
-        <v>0.0007819516388258554</v>
+        <v>0.002418867752461246</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3456009242816371</v>
+        <v>0.9311135157979713</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.458627668883594</v>
+        <v>0.7623215871700779</v>
       </c>
       <c r="L13">
-        <v>0.5535045203210984</v>
+        <v>0.232771195907219</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.730293741128065</v>
+        <v>2.47963991380584</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.33568369070008</v>
+        <v>0.7474318212359208</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.08824133398505296</v>
+        <v>0.0403013741705962</v>
       </c>
       <c r="E14">
-        <v>0.08344493937507202</v>
+        <v>0.215824941812981</v>
       </c>
       <c r="F14">
-        <v>0.6499736137523513</v>
+        <v>0.739477821733729</v>
       </c>
       <c r="G14">
-        <v>0.0007826807800616854</v>
+        <v>0.002419299498410308</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3480921247905364</v>
+        <v>0.9330275274008386</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.417897561016645</v>
+        <v>0.7495739116913001</v>
       </c>
       <c r="L14">
-        <v>0.5435506700184618</v>
+        <v>0.2300699042654912</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.714334557709009</v>
+        <v>2.479531339456457</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.321230111549028</v>
+        <v>0.7434505549437063</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.08745863265697551</v>
+        <v>0.04003822751494823</v>
       </c>
       <c r="E15">
-        <v>0.08372787971198115</v>
+        <v>0.2160381109636127</v>
       </c>
       <c r="F15">
-        <v>0.6450584591793387</v>
+        <v>0.7389088308872189</v>
       </c>
       <c r="G15">
-        <v>0.0007831286067360196</v>
+        <v>0.002419565520702217</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3496422534249319</v>
+        <v>0.9342096102190816</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.392961336052593</v>
+        <v>0.7417619717631112</v>
       </c>
       <c r="L15">
-        <v>0.5374627716309419</v>
+        <v>0.2284165727883902</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.704664100980835</v>
+        <v>2.479496523686038</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.238632657051852</v>
+        <v>0.720691442533564</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.08297448970923682</v>
+        <v>0.03852701221816801</v>
       </c>
       <c r="E16">
-        <v>0.08539590466885816</v>
+        <v>0.2172855836446175</v>
       </c>
       <c r="F16">
-        <v>0.617389535897388</v>
+        <v>0.7357952159377277</v>
       </c>
       <c r="G16">
-        <v>0.0007857137746437669</v>
+        <v>0.002421114019991691</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3588888162226098</v>
+        <v>0.9411322246412261</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.250231634214515</v>
+        <v>0.6969400774898986</v>
       </c>
       <c r="L16">
-        <v>0.5027086848497788</v>
+        <v>0.2189618311710575</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.650808385225019</v>
+        <v>2.479782500257272</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.188155180687801</v>
+        <v>0.7067798352942987</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.08022431306462607</v>
+        <v>0.03759707427100523</v>
       </c>
       <c r="E17">
-        <v>0.08646024060762514</v>
+        <v>0.2180739874645781</v>
       </c>
       <c r="F17">
-        <v>0.600842877450475</v>
+        <v>0.734016278534618</v>
       </c>
       <c r="G17">
-        <v>0.0007873168973741891</v>
+        <v>0.002422085464290635</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3648776288186184</v>
+        <v>0.9455115694426439</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.162805715991311</v>
+        <v>0.6693951049745124</v>
       </c>
       <c r="L17">
-        <v>0.4815000149768451</v>
+        <v>0.2131794553083211</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.619112728951961</v>
+        <v>2.480390913859026</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.159188309262134</v>
+        <v>0.6987969472156124</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.07864259777439742</v>
+        <v>0.0370611585059919</v>
       </c>
       <c r="E18">
-        <v>0.08708729954406458</v>
+        <v>0.2185359611591737</v>
       </c>
       <c r="F18">
-        <v>0.5914761904456043</v>
+        <v>0.7330412658994661</v>
       </c>
       <c r="G18">
-        <v>0.0007882454422704632</v>
+        <v>0.002422652128483693</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.368435424951798</v>
+        <v>0.9480791500081622</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.112563267595021</v>
+        <v>0.653534544326817</v>
       </c>
       <c r="L18">
-        <v>0.4693397393536145</v>
+        <v>0.2098601693055002</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.601356302090409</v>
+        <v>2.480899880178271</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.149391607022039</v>
+        <v>0.6960973082686621</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.0781070624175868</v>
+        <v>0.03687952892041579</v>
       </c>
       <c r="E19">
-        <v>0.08730214748303045</v>
+        <v>0.2186938389816913</v>
       </c>
       <c r="F19">
-        <v>0.5883300381569754</v>
+        <v>0.732719417543926</v>
       </c>
       <c r="G19">
-        <v>0.0007885609566756936</v>
+        <v>0.002422845352507499</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3696591899095374</v>
+        <v>0.9489568512774227</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.095558744979883</v>
+        <v>0.6481614664405697</v>
       </c>
       <c r="L19">
-        <v>0.4652288221569734</v>
+        <v>0.2087374507822233</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.595423901345583</v>
+        <v>2.48109951077879</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.193521615695715</v>
+        <v>0.708258818477475</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.08051705913709384</v>
+        <v>0.03769617561173533</v>
       </c>
       <c r="E20">
-        <v>0.08634539549219333</v>
+        <v>0.2179891805169953</v>
       </c>
       <c r="F20">
-        <v>0.6025885754475979</v>
+        <v>0.7342006620835377</v>
       </c>
       <c r="G20">
-        <v>0.0007871455757734481</v>
+        <v>0.00242198123357961</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3642283268595961</v>
+        <v>0.9450403404429366</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.172107795339002</v>
+        <v>0.6723291238643583</v>
       </c>
       <c r="L20">
-        <v>0.4837536809076255</v>
+        <v>0.2137943186433517</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.622437289138418</v>
+        <v>2.480309686778867</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.342618818740249</v>
+        <v>0.749341929004629</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.08861668717708682</v>
+        <v>0.04042750269758244</v>
       </c>
       <c r="E21">
-        <v>0.08331009388458099</v>
+        <v>0.2157231790325653</v>
       </c>
       <c r="F21">
-        <v>0.6523396136271913</v>
+        <v>0.7397532699646803</v>
       </c>
       <c r="G21">
-        <v>0.0007824663629989786</v>
+        <v>0.002419172358122305</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3473553381864427</v>
+        <v>0.9324633152046964</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.429858410686165</v>
+        <v>0.7533189691220628</v>
       </c>
       <c r="L21">
-        <v>0.5464724399451057</v>
+        <v>0.2308630709873256</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.719000158119286</v>
+        <v>2.479556625864973</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.440754965612342</v>
+        <v>0.7763546252447782</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.09391440830628994</v>
+        <v>0.04220311685978828</v>
       </c>
       <c r="E22">
-        <v>0.08146334587529225</v>
+        <v>0.2143177742601754</v>
       </c>
       <c r="F22">
-        <v>0.6863372896835926</v>
+        <v>0.7438116690673695</v>
       </c>
       <c r="G22">
-        <v>0.0007794626368395311</v>
+        <v>0.002417406703488663</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3374024766669486</v>
+        <v>0.9246774134393014</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.598838564988057</v>
+        <v>0.806089242626058</v>
       </c>
       <c r="L22">
-        <v>0.5878636720079697</v>
+        <v>0.2420762313106763</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.78675606952234</v>
+        <v>2.480482535226059</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.388309398635954</v>
+        <v>0.761922765459758</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.09108637668757069</v>
+        <v>0.04125631418306597</v>
       </c>
       <c r="E23">
-        <v>0.08243623082677765</v>
+        <v>0.2150609601035143</v>
       </c>
       <c r="F23">
-        <v>0.6680492632438018</v>
+        <v>0.7416063130723956</v>
       </c>
       <c r="G23">
-        <v>0.0007810609651541855</v>
+        <v>0.002418342669901818</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3426128226086327</v>
+        <v>0.9287931798602571</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.508595227847934</v>
+        <v>0.7779398074369226</v>
       </c>
       <c r="L23">
-        <v>0.5657327276688449</v>
+        <v>0.2360863158178574</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.750146844282199</v>
+        <v>2.479858509640565</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.191095285495237</v>
+        <v>0.7075901231632713</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.0803847105469373</v>
+        <v>0.03765137588689527</v>
       </c>
       <c r="E24">
-        <v>0.08639726980382711</v>
+        <v>0.2180274946063934</v>
       </c>
       <c r="F24">
-        <v>0.6017988915182784</v>
+        <v>0.7341171536336333</v>
       </c>
       <c r="G24">
-        <v>0.0007872230087496157</v>
+        <v>0.002422028330952721</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3645215195835974</v>
+        <v>0.9452532278374441</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.167902264924749</v>
+        <v>0.671002730450482</v>
       </c>
       <c r="L24">
-        <v>0.4827346967921073</v>
+        <v>0.2135163231009756</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.620932809122621</v>
+        <v>2.480345913721493</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9808566982283935</v>
+        <v>0.6497006961967031</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.06884398722311147</v>
+        <v>0.03372321134861522</v>
       </c>
       <c r="E25">
-        <v>0.09123647932404388</v>
+        <v>0.2215526433365254</v>
       </c>
       <c r="F25">
-        <v>0.5360198029950567</v>
+        <v>0.7278807974845449</v>
       </c>
       <c r="G25">
-        <v>0.0007941188327078031</v>
+        <v>0.002426306769294988</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3924471899254094</v>
+        <v>0.9648697203492382</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.801966819397848</v>
+        <v>0.554991004872619</v>
       </c>
       <c r="L25">
-        <v>0.3946457647952286</v>
+        <v>0.1894230638142602</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.499465887770072</v>
+        <v>2.486950090088385</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_224/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_224/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6077046446798136</v>
+        <v>0.8276714409354042</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03079724402117989</v>
+        <v>0.06033186818125813</v>
       </c>
       <c r="E2">
-        <v>0.224429308261251</v>
+        <v>0.09526500731801679</v>
       </c>
       <c r="F2">
-        <v>0.7248687392599535</v>
+        <v>0.4917680942575373</v>
       </c>
       <c r="G2">
-        <v>0.00242972007515663</v>
+        <v>0.0007994272552852391</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9809152544316149</v>
+        <v>0.4163774450236986</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4690150215434414</v>
+        <v>1.53310648351615</v>
       </c>
       <c r="L2">
-        <v>0.1719004026205795</v>
+        <v>0.3307203035889046</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.497026713160096</v>
+        <v>1.423341121928956</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5796414754831005</v>
+        <v>0.7246224620422765</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02879354639640752</v>
+        <v>0.05454626035715648</v>
       </c>
       <c r="E3">
-        <v>0.2265548982605265</v>
+        <v>0.09827525206546905</v>
       </c>
       <c r="F3">
-        <v>0.7238108711795519</v>
+        <v>0.4640632789718921</v>
       </c>
       <c r="G3">
-        <v>0.002432198762770559</v>
+        <v>0.0008031767538320855</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9927891755959593</v>
+        <v>0.43454709847434</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4104088994488677</v>
+        <v>1.350914859998085</v>
       </c>
       <c r="L3">
-        <v>0.1601610097961412</v>
+        <v>0.2878423490004565</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.507101683807377</v>
+        <v>1.379096972584819</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5626095196223559</v>
+        <v>0.6616556556950286</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02755315446407991</v>
+        <v>0.05098329309974758</v>
       </c>
       <c r="E4">
-        <v>0.2279470801253858</v>
+        <v>0.1002584634761092</v>
       </c>
       <c r="F4">
-        <v>0.723645887686537</v>
+        <v>0.4480803117041745</v>
       </c>
       <c r="G4">
-        <v>0.002433802736840874</v>
+        <v>0.0008055563072255829</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.00057301700701</v>
+        <v>0.4466197087333299</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3742607026897247</v>
+        <v>1.238955602422919</v>
       </c>
       <c r="L4">
-        <v>0.1530203475481215</v>
+        <v>0.2616928165981989</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.514886927362753</v>
+        <v>1.355260874965197</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5557194436901511</v>
+        <v>0.6360633710030754</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02704516848562832</v>
+        <v>0.0495284049324809</v>
       </c>
       <c r="E5">
-        <v>0.2285363285517263</v>
+        <v>0.1011000926593786</v>
       </c>
       <c r="F5">
-        <v>0.723700466314952</v>
+        <v>0.4418117339605629</v>
       </c>
       <c r="G5">
-        <v>0.002434477062480316</v>
+        <v>0.0008065457765995543</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.003869013700236</v>
+        <v>0.4517631962320063</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3594896551382476</v>
+        <v>1.193294608313579</v>
       </c>
       <c r="L5">
-        <v>0.1501275280282499</v>
+        <v>0.2510756699839334</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.518461400828329</v>
+        <v>1.34634366271473</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5545784234709572</v>
+        <v>0.6318175778920079</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.026960666623566</v>
+        <v>0.04928663558380464</v>
       </c>
       <c r="E6">
-        <v>0.2286354978052074</v>
+        <v>0.1012418516843372</v>
       </c>
       <c r="F6">
-        <v>0.7237168851329017</v>
+        <v>0.4407852223554798</v>
       </c>
       <c r="G6">
-        <v>0.002434590285278813</v>
+        <v>0.0008067112815654581</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.004423801757374</v>
+        <v>0.4526305970199864</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3570345204384751</v>
+        <v>1.185710045498098</v>
       </c>
       <c r="L6">
-        <v>0.1496482112839317</v>
+        <v>0.2493148957695439</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.519079208723497</v>
+        <v>1.344909888121947</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5625163920921636</v>
+        <v>0.6613102494962675</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02754631373974803</v>
+        <v>0.05096368428309717</v>
       </c>
       <c r="E7">
-        <v>0.2279549381287982</v>
+        <v>0.1002696791336914</v>
       </c>
       <c r="F7">
-        <v>0.7236461305918525</v>
+        <v>0.4479947988960262</v>
       </c>
       <c r="G7">
-        <v>0.002433811747382583</v>
+        <v>0.000805569571024107</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.000616965830133</v>
+        <v>0.4466881779903549</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3740616575116746</v>
+        <v>1.238339967855609</v>
       </c>
       <c r="L7">
-        <v>0.1529812647481634</v>
+        <v>0.2615494794377611</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.514933506859919</v>
+        <v>1.355137443535995</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5979874980024249</v>
+        <v>0.7920706961112103</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03010848370041685</v>
+        <v>0.0583390049224235</v>
       </c>
       <c r="E8">
-        <v>0.2251441608267335</v>
+        <v>0.09627465216223818</v>
       </c>
       <c r="F8">
-        <v>0.7244033949001434</v>
+        <v>0.481993576254645</v>
       </c>
       <c r="G8">
-        <v>0.002430557733685446</v>
+        <v>0.0008007042341285849</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9849070170767149</v>
+        <v>0.4224480739612488</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4488421042360642</v>
+        <v>1.470297744745835</v>
       </c>
       <c r="L8">
-        <v>0.1678387431039283</v>
+        <v>0.3158955768163736</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.500168529963247</v>
+        <v>1.407369193600516</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6691041461781992</v>
+        <v>1.051391826933383</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03505168422596938</v>
+        <v>0.07273270608528293</v>
       </c>
       <c r="E9">
-        <v>0.2203216144610414</v>
+        <v>0.08953266694717499</v>
       </c>
       <c r="F9">
-        <v>0.7297358508858522</v>
+        <v>0.5574829685959202</v>
       </c>
       <c r="G9">
-        <v>0.002424824875068473</v>
+        <v>0.0007917611524129344</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.9580130718113153</v>
+        <v>0.3824962908840419</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5941572759948599</v>
+        <v>1.925095008646935</v>
       </c>
       <c r="L9">
-        <v>0.197505238065574</v>
+        <v>0.4241542942058345</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.483914633863122</v>
+        <v>1.538180797627632</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7222813739776086</v>
+        <v>1.244401822589595</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03863298298050211</v>
+        <v>0.08328832966682143</v>
       </c>
       <c r="E10">
-        <v>0.2171967730951474</v>
+        <v>0.08527648784217501</v>
       </c>
       <c r="F10">
-        <v>0.7360047355786676</v>
+        <v>0.6192984875140155</v>
       </c>
       <c r="G10">
-        <v>0.002421004242896591</v>
+        <v>0.0007855317133785576</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.9406391104756686</v>
+        <v>0.3582210084178818</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7000807689378519</v>
+        <v>2.260213792718673</v>
       </c>
       <c r="L10">
-        <v>0.2196225295919447</v>
+        <v>0.5051341377060368</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.479734630999531</v>
+        <v>1.654490715774898</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7466702662102875</v>
+        <v>1.332918799005341</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04025106503587494</v>
+        <v>0.08809165181597223</v>
       </c>
       <c r="E11">
-        <v>0.2158656061615449</v>
+        <v>0.08349886434853637</v>
       </c>
       <c r="F11">
-        <v>0.7393684441233148</v>
+        <v>0.6490317109167307</v>
       </c>
       <c r="G11">
-        <v>0.002419350277192517</v>
+        <v>0.0007827663463715884</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.9332530027675858</v>
+        <v>0.3483871279251538</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7480802438620344</v>
+        <v>2.413128285154897</v>
       </c>
       <c r="L11">
-        <v>0.2297536602258674</v>
+        <v>0.5423859419992425</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.479522802189535</v>
+        <v>1.712479082313081</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7559337375154485</v>
+        <v>1.366555773952769</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04086217595855857</v>
+        <v>0.08991123656840472</v>
       </c>
       <c r="E12">
-        <v>0.2153744871477894</v>
+        <v>0.0828491644507654</v>
       </c>
       <c r="F12">
-        <v>0.7407158809475476</v>
+        <v>0.6605435595541564</v>
       </c>
       <c r="G12">
-        <v>0.002418735988704661</v>
+        <v>0.0007817285373927209</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.9305304840402293</v>
+        <v>0.3448467664731467</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.766229006172523</v>
+        <v>2.471121910346483</v>
       </c>
       <c r="L12">
-        <v>0.2336000165675785</v>
+        <v>0.5565604143862828</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.479685853896541</v>
+        <v>1.735229739801554</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7539374505172134</v>
+        <v>1.359305979532593</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04073063488630879</v>
+        <v>0.08951931901371779</v>
       </c>
       <c r="E13">
-        <v>0.2154796821996587</v>
+        <v>0.08298803538787958</v>
       </c>
       <c r="F13">
-        <v>0.7404224088321172</v>
+        <v>0.6580527029929044</v>
       </c>
       <c r="G13">
-        <v>0.002418867752461246</v>
+        <v>0.0007819516388256733</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9311135157979713</v>
+        <v>0.3456009242816478</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7623215871700779</v>
+        <v>2.458627668883594</v>
       </c>
       <c r="L13">
-        <v>0.232771195907219</v>
+        <v>0.5535045203211268</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.47963991380584</v>
+        <v>1.730293741128094</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7474318212359208</v>
+        <v>1.335683690700222</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0403013741705962</v>
+        <v>0.08824133398515954</v>
       </c>
       <c r="E14">
-        <v>0.215824941812981</v>
+        <v>0.08344493937509156</v>
       </c>
       <c r="F14">
-        <v>0.739477821733729</v>
+        <v>0.6499736137523371</v>
       </c>
       <c r="G14">
-        <v>0.002419299498410308</v>
+        <v>0.0007826807800373715</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.9330275274008386</v>
+        <v>0.3480921247905222</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7495739116913001</v>
+        <v>2.417897561016559</v>
       </c>
       <c r="L14">
-        <v>0.2300699042654912</v>
+        <v>0.5435506700184618</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.479531339456457</v>
+        <v>1.714334557709037</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7434505549437063</v>
+        <v>1.321230111549141</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04003822751494823</v>
+        <v>0.08745863265713893</v>
       </c>
       <c r="E15">
-        <v>0.2160381109636127</v>
+        <v>0.08372787971197582</v>
       </c>
       <c r="F15">
-        <v>0.7389088308872189</v>
+        <v>0.6450584591793387</v>
       </c>
       <c r="G15">
-        <v>0.002419565520702217</v>
+        <v>0.0007831286067353566</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9342096102190816</v>
+        <v>0.3496422534249319</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7417619717631112</v>
+        <v>2.392961336052736</v>
       </c>
       <c r="L15">
-        <v>0.2284165727883902</v>
+        <v>0.5374627716308709</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.479496523686038</v>
+        <v>1.704664100980892</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.720691442533564</v>
+        <v>1.238632657051681</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03852701221816801</v>
+        <v>0.08297448970923682</v>
       </c>
       <c r="E16">
-        <v>0.2172855836446175</v>
+        <v>0.08539590466884928</v>
       </c>
       <c r="F16">
-        <v>0.7357952159377277</v>
+        <v>0.6173895358974022</v>
       </c>
       <c r="G16">
-        <v>0.002421114019991691</v>
+        <v>0.0007857137746732169</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.9411322246412261</v>
+        <v>0.3588888162226134</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6969400774898986</v>
+        <v>2.25023163421443</v>
       </c>
       <c r="L16">
-        <v>0.2189618311710575</v>
+        <v>0.5027086848497646</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.479782500257272</v>
+        <v>1.650808385224963</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7067798352942987</v>
+        <v>1.188155180687687</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03759707427100523</v>
+        <v>0.08022431306466871</v>
       </c>
       <c r="E17">
-        <v>0.2180739874645781</v>
+        <v>0.08646024060763846</v>
       </c>
       <c r="F17">
-        <v>0.734016278534618</v>
+        <v>0.6008428774504964</v>
       </c>
       <c r="G17">
-        <v>0.002422085464290635</v>
+        <v>0.0007873168973737177</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.9455115694426439</v>
+        <v>0.3648776288186184</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6693951049745124</v>
+        <v>2.162805715991311</v>
       </c>
       <c r="L17">
-        <v>0.2131794553083211</v>
+        <v>0.4815000149768878</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.480390913859026</v>
+        <v>1.619112728951905</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6987969472156124</v>
+        <v>1.159188309262049</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0370611585059919</v>
+        <v>0.0786425977745111</v>
       </c>
       <c r="E18">
-        <v>0.2185359611591737</v>
+        <v>0.08708729954403971</v>
       </c>
       <c r="F18">
-        <v>0.7330412658994661</v>
+        <v>0.5914761904456043</v>
       </c>
       <c r="G18">
-        <v>0.002422652128483693</v>
+        <v>0.0007882454422156636</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9480791500081622</v>
+        <v>0.3684354249517909</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.653534544326817</v>
+        <v>2.112563267595078</v>
       </c>
       <c r="L18">
-        <v>0.2098601693055002</v>
+        <v>0.4693397393535719</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.480899880178271</v>
+        <v>1.601356302090466</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6960973082686621</v>
+        <v>1.149391607022039</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03687952892041579</v>
+        <v>0.07810706241782839</v>
       </c>
       <c r="E19">
-        <v>0.2186938389816913</v>
+        <v>0.08730214748304288</v>
       </c>
       <c r="F19">
-        <v>0.732719417543926</v>
+        <v>0.5883300381569612</v>
       </c>
       <c r="G19">
-        <v>0.002422845352507499</v>
+        <v>0.0007885609567328618</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.9489568512774227</v>
+        <v>0.3696591899095125</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6481614664405697</v>
+        <v>2.095558744979769</v>
       </c>
       <c r="L19">
-        <v>0.2087374507822233</v>
+        <v>0.4652288221570444</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.48109951077879</v>
+        <v>1.595423901345526</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.708258818477475</v>
+        <v>1.193521615695744</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03769617561173533</v>
+        <v>0.08051705913698015</v>
       </c>
       <c r="E20">
-        <v>0.2179891805169953</v>
+        <v>0.08634539549218267</v>
       </c>
       <c r="F20">
-        <v>0.7342006620835377</v>
+        <v>0.6025885754475766</v>
       </c>
       <c r="G20">
-        <v>0.00242198123357961</v>
+        <v>0.0007871455757689073</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9450403404429366</v>
+        <v>0.3642283268596138</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6723291238643583</v>
+        <v>2.172107795339144</v>
       </c>
       <c r="L20">
-        <v>0.2137943186433517</v>
+        <v>0.4837536809076255</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.480309686778867</v>
+        <v>1.622437289138475</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.749341929004629</v>
+        <v>1.342618818740107</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04042750269758244</v>
+        <v>0.08861668717713655</v>
       </c>
       <c r="E21">
-        <v>0.2157231790325653</v>
+        <v>0.08331009388457922</v>
       </c>
       <c r="F21">
-        <v>0.7397532699646803</v>
+        <v>0.6523396136272055</v>
       </c>
       <c r="G21">
-        <v>0.002419172358122305</v>
+        <v>0.0007824663630237351</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.9324633152046964</v>
+        <v>0.3473553381864392</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.7533189691220628</v>
+        <v>2.429858410686165</v>
       </c>
       <c r="L21">
-        <v>0.2308630709873256</v>
+        <v>0.5464724399450631</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.479556625864973</v>
+        <v>1.719000158119286</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7763546252447782</v>
+        <v>1.440754965612399</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04220311685978828</v>
+        <v>0.093914408306361</v>
       </c>
       <c r="E22">
-        <v>0.2143177742601754</v>
+        <v>0.08146334587529402</v>
       </c>
       <c r="F22">
-        <v>0.7438116690673695</v>
+        <v>0.6863372896836211</v>
       </c>
       <c r="G22">
-        <v>0.002417406703488663</v>
+        <v>0.0007794626368373692</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9246774134393014</v>
+        <v>0.337402476666945</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.806089242626058</v>
+        <v>2.598838564988029</v>
       </c>
       <c r="L22">
-        <v>0.2420762313106763</v>
+        <v>0.5878636720078845</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.480482535226059</v>
+        <v>1.786756069522312</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.761922765459758</v>
+        <v>1.388309398635982</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04125631418306597</v>
+        <v>0.0910863766875778</v>
       </c>
       <c r="E23">
-        <v>0.2150609601035143</v>
+        <v>0.08243623082676876</v>
       </c>
       <c r="F23">
-        <v>0.7416063130723956</v>
+        <v>0.6680492632438018</v>
       </c>
       <c r="G23">
-        <v>0.002418342669901818</v>
+        <v>0.0007810609651540862</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.9287931798602571</v>
+        <v>0.3426128226086576</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7779398074369226</v>
+        <v>2.508595227847962</v>
       </c>
       <c r="L23">
-        <v>0.2360863158178574</v>
+        <v>0.5657327276689159</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.479858509640565</v>
+        <v>1.750146844282199</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7075901231632713</v>
+        <v>1.191095285495351</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03765137588689527</v>
+        <v>0.08038471054693019</v>
       </c>
       <c r="E24">
-        <v>0.2180274946063934</v>
+        <v>0.08639726980381734</v>
       </c>
       <c r="F24">
-        <v>0.7341171536336333</v>
+        <v>0.6017988915182784</v>
       </c>
       <c r="G24">
-        <v>0.002422028330952721</v>
+        <v>0.0007872230087787335</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9452532278374441</v>
+        <v>0.3645215195835974</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.671002730450482</v>
+        <v>2.167902264924635</v>
       </c>
       <c r="L24">
-        <v>0.2135163231009756</v>
+        <v>0.4827346967921073</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.480345913721493</v>
+        <v>1.620932809122621</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6497006961967031</v>
+        <v>0.9808566982283082</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03372321134861522</v>
+        <v>0.06884398722332463</v>
       </c>
       <c r="E25">
-        <v>0.2215526433365254</v>
+        <v>0.09123647932404921</v>
       </c>
       <c r="F25">
-        <v>0.7278807974845449</v>
+        <v>0.5360198029950425</v>
       </c>
       <c r="G25">
-        <v>0.002426306769294988</v>
+        <v>0.0007941188328466091</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.9648697203492382</v>
+        <v>0.3924471899254023</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.554991004872619</v>
+        <v>1.801966819397904</v>
       </c>
       <c r="L25">
-        <v>0.1894230638142602</v>
+        <v>0.3946457647952997</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.486950090088385</v>
+        <v>1.499465887770072</v>
       </c>
     </row>
   </sheetData>
